--- a/data/allDataColumnNameAndValue.xlsx
+++ b/data/allDataColumnNameAndValue.xlsx
@@ -8,13 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspaces\02_Crawling_TeamProject\theBoram4Jo\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B118F6BF-FF86-4A70-88CE-5B3214FA4518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F854896-358B-4FCA-9E4B-64E3CD6BF182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{17467844-A38B-4B80-8DF4-41B3CF60DC48}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{17467844-A38B-4B80-8DF4-41B3CF60DC48}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$B$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="182">
   <si>
     <t>각 파일별 열이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -539,6 +543,64 @@
   <si>
     <t>계약정보test</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>열이름</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>방산업체 지정현황</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>방산업체 경영실태</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>국내조달 입찰참여업체정보</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>용어사전</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>국내조달 경쟁 입찰결과</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>국내조달 경쟁 입찰공고</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가장 오래된 날짜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가장 최신 날짜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일 명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>국내조달 계약정보test</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(계약일자 기준)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1973-04-01</t>
+  </si>
+  <si>
+    <t>2025-02-13</t>
   </si>
 </sst>
 </file>
@@ -963,11 +1025,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{609F9CCA-2E00-43AF-9E90-5C4942EEE493}">
   <dimension ref="A1:AU29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A27" activeCellId="6" sqref="A3 A7 A11 A15 A19 A23 A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="8" max="8" width="13.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -1747,4 +1812,1035 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABFAB850-21DD-46A2-B346-E2F40D10AA78}">
+  <dimension ref="A1:J118"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="7" max="7" width="26.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="11.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G1" t="s">
+        <v>177</v>
+      </c>
+      <c r="H1" t="s">
+        <v>175</v>
+      </c>
+      <c r="I1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>169</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7">
+        <v>6</v>
+      </c>
+      <c r="G7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8">
+        <v>7</v>
+      </c>
+      <c r="G8" t="s">
+        <v>178</v>
+      </c>
+      <c r="H8" s="9">
+        <v>44440</v>
+      </c>
+      <c r="I8" s="9">
+        <v>45170</v>
+      </c>
+      <c r="J8" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>5</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>5</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>5</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>5</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>5</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>5</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>5</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>5</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>5</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>5</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>5</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>5</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>5</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>5</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>5</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>5</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>5</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>5</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>5</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>5</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>5</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>5</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>5</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>5</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>5</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>5</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>5</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>6</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>6</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>6</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>6</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>6</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>6</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>6</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>6</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>6</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>6</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>6</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>6</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>6</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>6</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>6</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>6</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>6</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>6</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>6</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>6</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>6</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>6</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>6</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>6</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>6</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>6</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>6</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>6</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>6</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>6</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>6</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>6</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>6</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>6</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>6</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>6</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>6</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>6</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>6</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>6</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>6</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>6</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>6</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>6</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>6</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>6</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>6</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>7</v>
+      </c>
+      <c r="B91" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>7</v>
+      </c>
+      <c r="B92" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>7</v>
+      </c>
+      <c r="B93" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>7</v>
+      </c>
+      <c r="B94" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>7</v>
+      </c>
+      <c r="B95" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>7</v>
+      </c>
+      <c r="B96" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>7</v>
+      </c>
+      <c r="B97" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>7</v>
+      </c>
+      <c r="B98" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>7</v>
+      </c>
+      <c r="B99" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>7</v>
+      </c>
+      <c r="B100" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>7</v>
+      </c>
+      <c r="B101" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>7</v>
+      </c>
+      <c r="B102" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>7</v>
+      </c>
+      <c r="B103" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>7</v>
+      </c>
+      <c r="B104" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>7</v>
+      </c>
+      <c r="B105" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>7</v>
+      </c>
+      <c r="B106" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>7</v>
+      </c>
+      <c r="B107" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>7</v>
+      </c>
+      <c r="B108" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>7</v>
+      </c>
+      <c r="B109" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>7</v>
+      </c>
+      <c r="B110" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>7</v>
+      </c>
+      <c r="B111" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>7</v>
+      </c>
+      <c r="B112" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>7</v>
+      </c>
+      <c r="B113" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>7</v>
+      </c>
+      <c r="B114" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>7</v>
+      </c>
+      <c r="B115" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>7</v>
+      </c>
+      <c r="B116" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>7</v>
+      </c>
+      <c r="B117" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>7</v>
+      </c>
+      <c r="B118" t="s">
+        <v>148</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:B1" xr:uid="{ABFAB850-21DD-46A2-B346-E2F40D10AA78}"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>